--- a/Tasks_ExerciceTD.xlsx
+++ b/Tasks_ExerciceTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\UnityProjects\TowerDefense_TP_2022\ExerciceTD_2022_GS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD180B2D-CC39-4804-AB8F-3855CEC4E02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2047989-EC57-4EC3-BF7F-40FAD80E6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6041B103-3467-426C-A235-76990D26AF6D}"/>
   </bookViews>
@@ -62,10 +62,10 @@
     <t>LD</t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>Tasks</t>
+  </si>
+  <si>
+    <t>UI / Sound</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
